--- a/REGULAR/OJT/PANGANIBAN CRISTETA.xlsx
+++ b/REGULAR/OJT/PANGANIBAN CRISTETA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F8BE2DB-83DA-4F66-9C1D-2F913E02895E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="282">
   <si>
     <t>PERIOD</t>
   </si>
@@ -878,12 +877,15 @@
   </si>
   <si>
     <t>7/3-5/2023</t>
+  </si>
+  <si>
+    <t>9/12,13/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1788,7 +1790,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1831,7 +1833,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1895,7 +1897,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1955,7 +1957,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2021,7 +2023,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2084,7 +2086,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2182,7 +2184,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2241,7 +2243,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2306,7 +2308,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2349,7 +2351,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2424,7 +2426,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2610,7 +2612,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2676,7 +2678,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2734,7 +2736,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2800,7 +2802,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2856,7 +2858,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2931,7 +2933,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2974,7 +2976,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3040,7 +3042,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3096,7 +3098,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3194,7 +3196,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3257,7 +3259,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3306,7 +3308,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3323,25 +3325,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K475" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K475" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3353,13 +3355,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3368,14 +3370,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3679,7 +3681,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3689,7 +3691,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3697,7 +3699,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3706,25 +3708,25 @@
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
       <pane ySplit="3900" topLeftCell="A436" activePane="bottomLeft"/>
       <selection activeCell="L1" sqref="L1:P1048576"/>
-      <selection pane="bottomLeft" activeCell="B443" sqref="B443"/>
+      <selection pane="bottomLeft" activeCell="E445" sqref="E445"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="29" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="29" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="32.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="29" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="29" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="32.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
         <v>9</v>
       </c>
@@ -3747,7 +3749,7 @@
       <c r="J2" s="59"/>
       <c r="K2" s="60"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3767,7 +3769,7 @@
       <c r="J3" s="61"/>
       <c r="K3" s="62"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3789,7 +3791,7 @@
       <c r="J4" s="63"/>
       <c r="K4" s="64"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="26" t="s">
         <v>18</v>
@@ -3797,7 +3799,7 @@
       <c r="I5" s="26"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="30"/>
@@ -3810,7 +3812,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="57" t="s">
@@ -3827,7 +3829,7 @@
       <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3862,7 +3864,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="53"/>
       <c r="B9" s="23" t="s">
         <v>23</v>
@@ -3871,7 +3873,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>196.958</v>
+        <v>197.458</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3881,12 +3883,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>255.5</v>
+        <v>258</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="54" t="s">
         <v>42</v>
       </c>
@@ -3910,7 +3912,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="54" t="s">
         <v>44</v>
       </c>
@@ -3931,7 +3933,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="49" t="s">
         <v>46</v>
       </c>
@@ -3949,7 +3951,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="39">
         <v>35065</v>
       </c>
@@ -3969,7 +3971,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="39">
         <f>EDATE(A13,1)</f>
         <v>35096</v>
@@ -3990,7 +3992,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="39">
         <f t="shared" ref="A15:A85" si="0">EDATE(A14,1)</f>
         <v>35125</v>
@@ -4017,7 +4019,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="39">
         <f t="shared" si="0"/>
         <v>35156</v>
@@ -4038,7 +4040,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="39">
         <f t="shared" si="0"/>
         <v>35186</v>
@@ -4059,7 +4061,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="39">
         <f t="shared" si="0"/>
         <v>35217</v>
@@ -4086,7 +4088,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="39">
         <f t="shared" si="0"/>
         <v>35247</v>
@@ -4107,7 +4109,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="39">
         <f t="shared" si="0"/>
         <v>35278</v>
@@ -4128,7 +4130,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="39">
         <f t="shared" si="0"/>
         <v>35309</v>
@@ -4155,7 +4157,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="39">
         <f t="shared" si="0"/>
         <v>35339</v>
@@ -4176,7 +4178,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="39">
         <f t="shared" si="0"/>
         <v>35370</v>
@@ -4197,7 +4199,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="39">
         <f t="shared" si="0"/>
         <v>35400</v>
@@ -4218,7 +4220,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="49" t="s">
         <v>50</v>
       </c>
@@ -4238,7 +4240,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="39">
         <f>EDATE(A24,1)</f>
         <v>35431</v>
@@ -4259,7 +4261,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="39">
         <f t="shared" si="0"/>
         <v>35462</v>
@@ -4280,7 +4282,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="39">
         <f t="shared" si="0"/>
         <v>35490</v>
@@ -4307,7 +4309,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="39">
         <f t="shared" si="0"/>
         <v>35521</v>
@@ -4334,7 +4336,7 @@
         <v>35707</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="39">
         <f t="shared" si="0"/>
         <v>35551</v>
@@ -4355,7 +4357,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="39">
         <f t="shared" si="0"/>
         <v>35582</v>
@@ -4380,7 +4382,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="39">
         <f t="shared" si="0"/>
         <v>35612</v>
@@ -4401,7 +4403,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="39">
         <f t="shared" si="0"/>
         <v>35643</v>
@@ -4422,7 +4424,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="39">
         <f t="shared" si="0"/>
         <v>35674</v>
@@ -4443,7 +4445,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="39">
         <f t="shared" si="0"/>
         <v>35704</v>
@@ -4468,7 +4470,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="39">
         <f t="shared" si="0"/>
         <v>35735</v>
@@ -4493,7 +4495,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="39">
         <f t="shared" si="0"/>
         <v>35765</v>
@@ -4514,7 +4516,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="49" t="s">
         <v>49</v>
       </c>
@@ -4532,7 +4534,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="39">
         <f>EDATE(A37,1)</f>
         <v>35796</v>
@@ -4553,7 +4555,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="39">
         <f t="shared" si="0"/>
         <v>35827</v>
@@ -4574,7 +4576,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="39">
         <f t="shared" si="0"/>
         <v>35855</v>
@@ -4601,7 +4603,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="39">
         <f t="shared" si="0"/>
         <v>35886</v>
@@ -4622,7 +4624,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="39">
         <f t="shared" si="0"/>
         <v>35916</v>
@@ -4643,7 +4645,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="39">
         <f t="shared" si="0"/>
         <v>35947</v>
@@ -4664,7 +4666,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="39">
         <f t="shared" si="0"/>
         <v>35977</v>
@@ -4685,7 +4687,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="39">
         <f t="shared" si="0"/>
         <v>36008</v>
@@ -4706,7 +4708,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="39">
         <f t="shared" si="0"/>
         <v>36039</v>
@@ -4733,7 +4735,7 @@
         <v>36047</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="39"/>
       <c r="B48" s="20" t="s">
         <v>61</v>
@@ -4751,7 +4753,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="51"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="39">
         <f>EDATE(A47,1)</f>
         <v>36069</v>
@@ -4776,7 +4778,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="39">
         <f t="shared" si="0"/>
         <v>36100</v>
@@ -4803,7 +4805,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="39"/>
       <c r="B51" s="20" t="s">
         <v>64</v>
@@ -4823,7 +4825,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="39">
         <f>EDATE(A50,1)</f>
         <v>36130</v>
@@ -4850,7 +4852,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="39"/>
       <c r="B53" s="20" t="s">
         <v>67</v>
@@ -4870,7 +4872,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="49" t="s">
         <v>48</v>
       </c>
@@ -4888,7 +4890,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="39">
         <f>EDATE(A52,1)</f>
         <v>36161</v>
@@ -4915,7 +4917,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="39"/>
       <c r="B56" s="20" t="s">
         <v>69</v>
@@ -4935,7 +4937,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="39">
         <f>EDATE(A55,1)</f>
         <v>36192</v>
@@ -4962,7 +4964,7 @@
         <v>36162</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="39">
         <f t="shared" si="0"/>
         <v>36220</v>
@@ -4989,7 +4991,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="39"/>
       <c r="B59" s="20" t="s">
         <v>63</v>
@@ -5011,7 +5013,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="39"/>
       <c r="B60" s="20" t="s">
         <v>53</v>
@@ -5033,7 +5035,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="39"/>
       <c r="B61" s="20" t="s">
         <v>71</v>
@@ -5053,7 +5055,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="39">
         <f>EDATE(A58,1)</f>
         <v>36251</v>
@@ -5080,7 +5082,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="39"/>
       <c r="B63" s="20" t="s">
         <v>72</v>
@@ -5100,7 +5102,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="39">
         <f>EDATE(A62,1)</f>
         <v>36281</v>
@@ -5125,7 +5127,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="39">
         <f t="shared" si="0"/>
         <v>36312</v>
@@ -5150,7 +5152,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="39"/>
       <c r="B66" s="20" t="s">
         <v>80</v>
@@ -5170,7 +5172,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="39">
         <f>EDATE(A65,1)</f>
         <v>36342</v>
@@ -5195,7 +5197,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="39">
         <f t="shared" si="0"/>
         <v>36373</v>
@@ -5222,7 +5224,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="39"/>
       <c r="B69" s="20" t="s">
         <v>81</v>
@@ -5242,7 +5244,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="39">
         <f>EDATE(A68,1)</f>
         <v>36404</v>
@@ -5267,7 +5269,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="39">
         <f t="shared" si="0"/>
         <v>36434</v>
@@ -5294,7 +5296,7 @@
         <v>36504</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="39"/>
       <c r="B72" s="20" t="s">
         <v>78</v>
@@ -5316,7 +5318,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="39">
         <f>EDATE(A71,1)</f>
         <v>36465</v>
@@ -5341,7 +5343,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="39">
         <f t="shared" si="0"/>
         <v>36495</v>
@@ -5366,7 +5368,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="39"/>
       <c r="B75" s="20" t="s">
         <v>63</v>
@@ -5386,7 +5388,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="39"/>
       <c r="B76" s="20" t="s">
         <v>87</v>
@@ -5406,7 +5408,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="49" t="s">
         <v>47</v>
       </c>
@@ -5421,7 +5423,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="39">
         <f>EDATE(A74,1)</f>
         <v>36526</v>
@@ -5446,7 +5448,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="39">
         <f t="shared" si="0"/>
         <v>36557</v>
@@ -5471,7 +5473,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="39">
         <f t="shared" si="0"/>
         <v>36586</v>
@@ -5496,7 +5498,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="39">
         <f t="shared" si="0"/>
         <v>36617</v>
@@ -5517,7 +5519,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="39">
         <f t="shared" si="0"/>
         <v>36647</v>
@@ -5544,7 +5546,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="39"/>
       <c r="B83" s="20" t="s">
         <v>92</v>
@@ -5564,7 +5566,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="39">
         <f>EDATE(A82,1)</f>
         <v>36678</v>
@@ -5589,7 +5591,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="39">
         <f t="shared" si="0"/>
         <v>36708</v>
@@ -5616,7 +5618,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="39"/>
       <c r="B86" s="20" t="s">
         <v>95</v>
@@ -5636,7 +5638,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="39">
         <f>EDATE(A85,1)</f>
         <v>36739</v>
@@ -5663,7 +5665,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="39"/>
       <c r="B88" s="20" t="s">
         <v>53</v>
@@ -5687,7 +5689,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="39"/>
       <c r="B89" s="20" t="s">
         <v>96</v>
@@ -5707,7 +5709,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="39">
         <f>EDATE(A87,1)</f>
         <v>36770</v>
@@ -5728,7 +5730,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="39">
         <f>EDATE(A90,1)</f>
         <v>36800</v>
@@ -5755,7 +5757,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="39">
         <f>EDATE(A91,1)</f>
         <v>36831</v>
@@ -5782,7 +5784,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="39">
         <f>EDATE(A92,1)</f>
         <v>36861</v>
@@ -5803,7 +5805,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="49" t="s">
         <v>97</v>
       </c>
@@ -5821,7 +5823,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="39">
         <f t="shared" ref="A95" si="1">EDATE(A93,1)</f>
         <v>36892</v>
@@ -5842,7 +5844,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="39">
         <f t="shared" ref="A96:A101" si="2">EDATE(A95,1)</f>
         <v>36923</v>
@@ -5863,7 +5865,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="39">
         <f t="shared" si="2"/>
         <v>36951</v>
@@ -5890,7 +5892,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="39">
         <f t="shared" si="2"/>
         <v>36982</v>
@@ -5911,7 +5913,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="39">
         <f t="shared" si="2"/>
         <v>37012</v>
@@ -5938,7 +5940,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="39">
         <f t="shared" si="2"/>
         <v>37043</v>
@@ -5959,7 +5961,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="39">
         <f t="shared" si="2"/>
         <v>37073</v>
@@ -5986,7 +5988,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="39"/>
       <c r="B102" s="20" t="s">
         <v>70</v>
@@ -6008,7 +6010,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="39">
         <f>EDATE(A101,1)</f>
         <v>37104</v>
@@ -6035,7 +6037,7 @@
         <v>37111</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="39"/>
       <c r="B104" s="20" t="s">
         <v>53</v>
@@ -6057,7 +6059,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="39"/>
       <c r="B105" s="20" t="s">
         <v>53</v>
@@ -6079,7 +6081,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="39">
         <f>EDATE(A103,1)</f>
         <v>37135</v>
@@ -6106,7 +6108,7 @@
         <v>37081</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="39"/>
       <c r="B107" s="20" t="s">
         <v>53</v>
@@ -6128,7 +6130,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="39">
         <f>EDATE(A106,1)</f>
         <v>37165</v>
@@ -6155,7 +6157,7 @@
         <v>37144</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="39"/>
       <c r="B109" s="20" t="s">
         <v>78</v>
@@ -6175,7 +6177,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="39">
         <f>EDATE(A108,1)</f>
         <v>37196</v>
@@ -6202,7 +6204,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="39">
         <f t="shared" ref="A111:A126" si="3">EDATE(A110,1)</f>
         <v>37226</v>
@@ -6229,7 +6231,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="39"/>
       <c r="B112" s="20" t="s">
         <v>115</v>
@@ -6251,7 +6253,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="49" t="s">
         <v>105</v>
       </c>
@@ -6269,7 +6271,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="39">
         <f>EDATE(A111,1)</f>
         <v>37257</v>
@@ -6296,7 +6298,7 @@
         <v>37469</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="39">
         <f>EDATE(A114,1)</f>
         <v>37288</v>
@@ -6317,7 +6319,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="39">
         <f>EDATE(A115,1)</f>
         <v>37316</v>
@@ -6344,7 +6346,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="39">
         <f t="shared" si="3"/>
         <v>37347</v>
@@ -6365,7 +6367,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="39">
         <f t="shared" si="3"/>
         <v>37377</v>
@@ -6392,7 +6394,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="39"/>
       <c r="B119" s="20" t="s">
         <v>78</v>
@@ -6412,7 +6414,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="39">
         <f>EDATE(A118,1)</f>
         <v>37408</v>
@@ -6433,7 +6435,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="39">
         <f t="shared" si="3"/>
         <v>37438</v>
@@ -6454,7 +6456,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="39">
         <f t="shared" si="3"/>
         <v>37469</v>
@@ -6481,7 +6483,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="39">
         <f t="shared" si="3"/>
         <v>37500</v>
@@ -6502,7 +6504,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="39">
         <f t="shared" si="3"/>
         <v>37530</v>
@@ -6529,7 +6531,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="39">
         <f t="shared" si="3"/>
         <v>37561</v>
@@ -6556,7 +6558,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="39">
         <f t="shared" si="3"/>
         <v>37591</v>
@@ -6583,7 +6585,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="39"/>
       <c r="B127" s="20" t="s">
         <v>134</v>
@@ -6603,7 +6605,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="49" t="s">
         <v>106</v>
       </c>
@@ -6621,7 +6623,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="39">
         <f>EDATE(A126,1)</f>
         <v>37622</v>
@@ -6648,7 +6650,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="39"/>
       <c r="B130" s="20" t="s">
         <v>53</v>
@@ -6672,7 +6674,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="39">
         <f>EDATE(A129,1)</f>
         <v>37653</v>
@@ -6699,7 +6701,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="39"/>
       <c r="B132" s="20" t="s">
         <v>53</v>
@@ -6721,7 +6723,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="39"/>
       <c r="B133" s="20" t="s">
         <v>53</v>
@@ -6743,7 +6745,7 @@
         <v>37683</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="39">
         <f>EDATE(A131,1)</f>
         <v>37681</v>
@@ -6770,7 +6772,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="39">
         <f t="shared" ref="A135:A210" si="4">EDATE(A134,1)</f>
         <v>37712</v>
@@ -6797,7 +6799,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="39">
         <f t="shared" si="4"/>
         <v>37742</v>
@@ -6818,7 +6820,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="39">
         <f t="shared" si="4"/>
         <v>37773</v>
@@ -6839,7 +6841,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="39">
         <f t="shared" si="4"/>
         <v>37803</v>
@@ -6866,7 +6868,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="39">
         <f t="shared" si="4"/>
         <v>37834</v>
@@ -6893,7 +6895,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="39"/>
       <c r="B140" s="20" t="s">
         <v>70</v>
@@ -6915,7 +6917,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="39">
         <f>EDATE(A139,1)</f>
         <v>37865</v>
@@ -6942,7 +6944,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="39">
         <f t="shared" si="4"/>
         <v>37895</v>
@@ -6969,7 +6971,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="39"/>
       <c r="B143" s="20" t="s">
         <v>70</v>
@@ -6991,7 +6993,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="39"/>
       <c r="B144" s="20" t="s">
         <v>78</v>
@@ -7013,7 +7015,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="39">
         <f>EDATE(A142,1)</f>
         <v>37926</v>
@@ -7034,7 +7036,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="39">
         <f t="shared" si="4"/>
         <v>37956</v>
@@ -7061,7 +7063,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="49" t="s">
         <v>107</v>
       </c>
@@ -7079,7 +7081,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="39">
         <f>EDATE(A146,1)</f>
         <v>37987</v>
@@ -7106,7 +7108,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="39"/>
       <c r="B149" s="20" t="s">
         <v>70</v>
@@ -7128,7 +7130,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="39"/>
       <c r="B150" s="20" t="s">
         <v>53</v>
@@ -7150,7 +7152,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="39"/>
       <c r="B151" s="20" t="s">
         <v>53</v>
@@ -7172,7 +7174,7 @@
         <v>38048</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="39">
         <f>EDATE(A148,1)</f>
         <v>38018</v>
@@ -7193,7 +7195,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="39">
         <f t="shared" si="4"/>
         <v>38047</v>
@@ -7214,7 +7216,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="39">
         <f t="shared" si="4"/>
         <v>38078</v>
@@ -7235,7 +7237,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="39">
         <f t="shared" si="4"/>
         <v>38108</v>
@@ -7256,7 +7258,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="39">
         <f t="shared" si="4"/>
         <v>38139</v>
@@ -7277,7 +7279,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="39">
         <f t="shared" si="4"/>
         <v>38169</v>
@@ -7304,7 +7306,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="39">
         <f t="shared" si="4"/>
         <v>38200</v>
@@ -7329,7 +7331,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="39"/>
       <c r="B159" s="20" t="s">
         <v>86</v>
@@ -7351,7 +7353,7 @@
         <v>38238</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="39">
         <f>EDATE(A158,1)</f>
         <v>38231</v>
@@ -7372,7 +7374,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="39">
         <f t="shared" si="4"/>
         <v>38261</v>
@@ -7397,7 +7399,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="39">
         <f t="shared" si="4"/>
         <v>38292</v>
@@ -7418,7 +7420,7 @@
       <c r="J162" s="12"/>
       <c r="K162" s="15"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="39">
         <f t="shared" si="4"/>
         <v>38322</v>
@@ -7445,7 +7447,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="49" t="s">
         <v>108</v>
       </c>
@@ -7463,7 +7465,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="39">
         <f>EDATE(A163,1)</f>
         <v>38353</v>
@@ -7484,7 +7486,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="39">
         <f t="shared" si="4"/>
         <v>38384</v>
@@ -7505,7 +7507,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="39">
         <f t="shared" si="4"/>
         <v>38412</v>
@@ -7526,7 +7528,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="39">
         <f t="shared" si="4"/>
         <v>38443</v>
@@ -7547,7 +7549,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="39">
         <f t="shared" si="4"/>
         <v>38473</v>
@@ -7574,7 +7576,7 @@
         <v>38447</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="39">
         <f t="shared" si="4"/>
         <v>38504</v>
@@ -7601,7 +7603,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="39">
         <f t="shared" si="4"/>
         <v>38534</v>
@@ -7628,7 +7630,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="39">
         <f t="shared" si="4"/>
         <v>38565</v>
@@ -7649,7 +7651,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="39">
         <f t="shared" si="4"/>
         <v>38596</v>
@@ -7676,7 +7678,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="39">
         <f t="shared" si="4"/>
         <v>38626</v>
@@ -7701,7 +7703,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="39"/>
       <c r="B175" s="20" t="s">
         <v>53</v>
@@ -7723,7 +7725,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="39">
         <f>EDATE(A174,1)</f>
         <v>38657</v>
@@ -7750,7 +7752,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="39">
         <f t="shared" si="4"/>
         <v>38687</v>
@@ -7771,7 +7773,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="49" t="s">
         <v>109</v>
       </c>
@@ -7789,7 +7791,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="39">
         <f>EDATE(A177,1)</f>
         <v>38718</v>
@@ -7816,7 +7818,7 @@
         <v>38657</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="39">
         <f t="shared" si="4"/>
         <v>38749</v>
@@ -7841,7 +7843,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="39">
         <f t="shared" si="4"/>
         <v>38777</v>
@@ -7868,7 +7870,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="39">
         <f t="shared" si="4"/>
         <v>38808</v>
@@ -7895,7 +7897,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="39">
         <f t="shared" si="4"/>
         <v>38838</v>
@@ -7916,7 +7918,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="39">
         <f t="shared" si="4"/>
         <v>38869</v>
@@ -7937,7 +7939,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="39">
         <f t="shared" si="4"/>
         <v>38899</v>
@@ -7958,7 +7960,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="39">
         <f t="shared" si="4"/>
         <v>38930</v>
@@ -7985,7 +7987,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="39">
         <f t="shared" si="4"/>
         <v>38961</v>
@@ -8006,7 +8008,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="39">
         <f t="shared" si="4"/>
         <v>38991</v>
@@ -8031,7 +8033,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="39"/>
       <c r="B189" s="20" t="s">
         <v>59</v>
@@ -8053,7 +8055,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="39">
         <f>EDATE(A188,1)</f>
         <v>39022</v>
@@ -8074,7 +8076,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="39">
         <f t="shared" si="4"/>
         <v>39052</v>
@@ -8101,7 +8103,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="49" t="s">
         <v>110</v>
       </c>
@@ -8119,7 +8121,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="39">
         <f>EDATE(A191,1)</f>
         <v>39083</v>
@@ -8140,7 +8142,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="39">
         <f t="shared" si="4"/>
         <v>39114</v>
@@ -8161,7 +8163,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="39">
         <f t="shared" si="4"/>
         <v>39142</v>
@@ -8188,7 +8190,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="39">
         <f t="shared" si="4"/>
         <v>39173</v>
@@ -8209,7 +8211,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="39">
         <f t="shared" si="4"/>
         <v>39203</v>
@@ -8236,7 +8238,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="39">
         <f t="shared" si="4"/>
         <v>39234</v>
@@ -8261,7 +8263,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="39">
         <f t="shared" si="4"/>
         <v>39264</v>
@@ -8288,7 +8290,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="39"/>
       <c r="B200" s="20" t="s">
         <v>78</v>
@@ -8310,7 +8312,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="39">
         <f>EDATE(A199,1)</f>
         <v>39295</v>
@@ -8335,7 +8337,7 @@
         <v>39181</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="39">
         <f t="shared" si="4"/>
         <v>39326</v>
@@ -8356,7 +8358,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="39">
         <f t="shared" si="4"/>
         <v>39356</v>
@@ -8383,7 +8385,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="39"/>
       <c r="B204" s="20" t="s">
         <v>134</v>
@@ -8407,7 +8409,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="39">
         <f>EDATE(A203,1)</f>
         <v>39387</v>
@@ -8434,7 +8436,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="39"/>
       <c r="B206" s="20" t="s">
         <v>59</v>
@@ -8458,7 +8460,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="39">
         <f>EDATE(A205,1)</f>
         <v>39417</v>
@@ -8479,7 +8481,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="49" t="s">
         <v>112</v>
       </c>
@@ -8497,7 +8499,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="39">
         <f>EDATE(A207,1)</f>
         <v>39448</v>
@@ -8524,7 +8526,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="39">
         <f t="shared" si="4"/>
         <v>39479</v>
@@ -8545,7 +8547,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="39">
         <f t="shared" ref="A211:A225" si="5">EDATE(A210,1)</f>
         <v>39508</v>
@@ -8570,7 +8572,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="39"/>
       <c r="B212" s="20" t="s">
         <v>70</v>
@@ -8592,7 +8594,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="39"/>
       <c r="B213" s="20" t="s">
         <v>78</v>
@@ -8612,7 +8614,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="39">
         <f>EDATE(A211,1)</f>
         <v>39539</v>
@@ -8639,7 +8641,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="39">
         <f t="shared" si="5"/>
         <v>39569</v>
@@ -8666,7 +8668,7 @@
         <v>39573</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="39"/>
       <c r="B216" s="20" t="s">
         <v>53</v>
@@ -8688,7 +8690,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="39"/>
       <c r="B217" s="20" t="s">
         <v>171</v>
@@ -8708,7 +8710,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="39">
         <f>EDATE(A215,1)</f>
         <v>39600</v>
@@ -8735,7 +8737,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="39"/>
       <c r="B219" s="20" t="s">
         <v>172</v>
@@ -8755,7 +8757,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="39">
         <f>EDATE(A218,1)</f>
         <v>39630</v>
@@ -8782,7 +8784,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="39"/>
       <c r="B221" s="20" t="s">
         <v>127</v>
@@ -8804,7 +8806,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="39"/>
       <c r="B222" s="20" t="s">
         <v>70</v>
@@ -8826,7 +8828,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="39">
         <f>EDATE(A220,1)</f>
         <v>39661</v>
@@ -8853,7 +8855,7 @@
         <v>39760</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="39">
         <f t="shared" si="5"/>
         <v>39692</v>
@@ -8874,7 +8876,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="39">
         <f t="shared" si="5"/>
         <v>39722</v>
@@ -8901,7 +8903,7 @@
         <v>39731</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="39"/>
       <c r="B226" s="20" t="s">
         <v>171</v>
@@ -8921,7 +8923,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="39">
         <f>EDATE(A225,1)</f>
         <v>39753</v>
@@ -8946,7 +8948,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="39"/>
       <c r="B228" s="20" t="s">
         <v>171</v>
@@ -8966,7 +8968,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="39">
         <f>EDATE(A227,1)</f>
         <v>39783</v>
@@ -8993,7 +8995,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="49" t="s">
         <v>111</v>
       </c>
@@ -9011,7 +9013,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="39">
         <f>EDATE(A229,1)</f>
         <v>39814</v>
@@ -9036,7 +9038,7 @@
         <v>39905</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40">
         <f>EDATE(A231,1)</f>
         <v>39845</v>
@@ -9063,7 +9065,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="39"/>
       <c r="B233" s="20" t="s">
         <v>78</v>
@@ -9083,7 +9085,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40">
         <f>EDATE(A232,1)</f>
         <v>39873</v>
@@ -9108,7 +9110,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="39"/>
       <c r="B235" s="20" t="s">
         <v>202</v>
@@ -9128,7 +9130,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="39"/>
       <c r="B236" s="20" t="s">
         <v>171</v>
@@ -9148,7 +9150,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="39"/>
       <c r="B237" s="20" t="s">
         <v>171</v>
@@ -9168,7 +9170,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40">
         <f>EDATE(A234,1)</f>
         <v>39904</v>
@@ -9189,7 +9191,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40">
         <f t="shared" ref="A239:A313" si="6">EDATE(A238,1)</f>
         <v>39934</v>
@@ -9210,7 +9212,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40">
         <f t="shared" si="6"/>
         <v>39965</v>
@@ -9237,7 +9239,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40">
         <f t="shared" si="6"/>
         <v>39995</v>
@@ -9258,7 +9260,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40">
         <f t="shared" si="6"/>
         <v>40026</v>
@@ -9279,7 +9281,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40">
         <f t="shared" si="6"/>
         <v>40057</v>
@@ -9306,7 +9308,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40">
         <f t="shared" si="6"/>
         <v>40087</v>
@@ -9333,7 +9335,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40">
         <f t="shared" si="6"/>
         <v>40118</v>
@@ -9354,7 +9356,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40">
         <f t="shared" si="6"/>
         <v>40148</v>
@@ -9381,7 +9383,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="49" t="s">
         <v>207</v>
       </c>
@@ -9399,7 +9401,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40">
         <f>EDATE(A246,1)</f>
         <v>40179</v>
@@ -9424,7 +9426,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40">
         <f t="shared" si="6"/>
         <v>40210</v>
@@ -9449,7 +9451,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="39"/>
       <c r="B250" s="20" t="s">
         <v>212</v>
@@ -9471,7 +9473,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="39"/>
       <c r="B251" s="20" t="s">
         <v>212</v>
@@ -9493,7 +9495,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40">
         <f>EDATE(A249,1)</f>
         <v>40238</v>
@@ -9514,7 +9516,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40">
         <f t="shared" si="6"/>
         <v>40269</v>
@@ -9535,7 +9537,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40">
         <f t="shared" si="6"/>
         <v>40299</v>
@@ -9560,7 +9562,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40">
         <f t="shared" si="6"/>
         <v>40330</v>
@@ -9581,7 +9583,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40">
         <f t="shared" si="6"/>
         <v>40360</v>
@@ -9602,7 +9604,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40">
         <f t="shared" si="6"/>
         <v>40391</v>
@@ -9623,7 +9625,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40">
         <f t="shared" si="6"/>
         <v>40422</v>
@@ -9644,7 +9646,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40">
         <f t="shared" si="6"/>
         <v>40452</v>
@@ -9669,7 +9671,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40">
         <f t="shared" si="6"/>
         <v>40483</v>
@@ -9696,7 +9698,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40">
         <f t="shared" si="6"/>
         <v>40513</v>
@@ -9717,7 +9719,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="49" t="s">
         <v>220</v>
       </c>
@@ -9735,7 +9737,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40">
         <f>EDATE(A261,1)</f>
         <v>40544</v>
@@ -9756,7 +9758,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40">
         <f t="shared" si="6"/>
         <v>40575</v>
@@ -9781,7 +9783,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40">
         <f t="shared" si="6"/>
         <v>40603</v>
@@ -9808,7 +9810,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40">
         <f t="shared" si="6"/>
         <v>40634</v>
@@ -9829,7 +9831,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40">
         <f t="shared" si="6"/>
         <v>40664</v>
@@ -9850,7 +9852,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40">
         <f t="shared" si="6"/>
         <v>40695</v>
@@ -9871,7 +9873,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40">
         <f t="shared" si="6"/>
         <v>40725</v>
@@ -9892,7 +9894,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40">
         <f t="shared" si="6"/>
         <v>40756</v>
@@ -9913,7 +9915,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40">
         <f t="shared" si="6"/>
         <v>40787</v>
@@ -9940,7 +9942,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="39"/>
       <c r="B272" s="20" t="s">
         <v>78</v>
@@ -9960,7 +9962,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40">
         <f>EDATE(A271,1)</f>
         <v>40817</v>
@@ -9981,7 +9983,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40">
         <f t="shared" si="6"/>
         <v>40848</v>
@@ -10006,7 +10008,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="39"/>
       <c r="B275" s="20" t="s">
         <v>212</v>
@@ -10028,7 +10030,7 @@
         <v>40868</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="39"/>
       <c r="B276" s="20" t="s">
         <v>234</v>
@@ -10050,7 +10052,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40">
         <f>EDATE(A274,1)</f>
         <v>40878</v>
@@ -10071,7 +10073,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="49" t="s">
         <v>221</v>
       </c>
@@ -10089,7 +10091,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40">
         <f>EDATE(A277,1)</f>
         <v>40909</v>
@@ -10114,7 +10116,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="39"/>
       <c r="B280" s="20" t="s">
         <v>240</v>
@@ -10136,7 +10138,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="39"/>
       <c r="B281" s="20" t="s">
         <v>53</v>
@@ -10158,7 +10160,7 @@
         <v>40924</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40">
         <f>EDATE(A279,1)</f>
         <v>40940</v>
@@ -10183,7 +10185,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40">
         <f t="shared" si="6"/>
         <v>40969</v>
@@ -10204,7 +10206,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40">
         <f t="shared" si="6"/>
         <v>41000</v>
@@ -10225,7 +10227,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40">
         <f t="shared" si="6"/>
         <v>41030</v>
@@ -10246,7 +10248,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40">
         <f t="shared" si="6"/>
         <v>41061</v>
@@ -10267,7 +10269,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40">
         <f t="shared" si="6"/>
         <v>41091</v>
@@ -10294,7 +10296,7 @@
         <v>41096</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40">
         <f t="shared" si="6"/>
         <v>41122</v>
@@ -10315,7 +10317,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40">
         <f t="shared" si="6"/>
         <v>41153</v>
@@ -10336,7 +10338,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40">
         <f t="shared" si="6"/>
         <v>41183</v>
@@ -10363,7 +10365,7 @@
         <v>41211</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40">
         <f t="shared" si="6"/>
         <v>41214</v>
@@ -10390,7 +10392,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="39"/>
       <c r="B292" s="20" t="s">
         <v>163</v>
@@ -10412,7 +10414,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40">
         <f>EDATE(A291,1)</f>
         <v>41244</v>
@@ -10433,7 +10435,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="49" t="s">
         <v>222</v>
       </c>
@@ -10451,7 +10453,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40">
         <f>EDATE(A293,1)</f>
         <v>41275</v>
@@ -10472,7 +10474,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40">
         <f t="shared" si="6"/>
         <v>41306</v>
@@ -10493,7 +10495,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40">
         <f t="shared" si="6"/>
         <v>41334</v>
@@ -10514,7 +10516,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40">
         <f t="shared" si="6"/>
         <v>41365</v>
@@ -10535,7 +10537,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40">
         <f t="shared" si="6"/>
         <v>41395</v>
@@ -10556,7 +10558,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40">
         <f t="shared" si="6"/>
         <v>41426</v>
@@ -10577,7 +10579,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40">
         <f t="shared" si="6"/>
         <v>41456</v>
@@ -10604,7 +10606,7 @@
         <v>41481</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40">
         <f t="shared" si="6"/>
         <v>41487</v>
@@ -10625,7 +10627,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40">
         <f t="shared" si="6"/>
         <v>41518</v>
@@ -10646,7 +10648,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40">
         <f t="shared" si="6"/>
         <v>41548</v>
@@ -10667,7 +10669,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40">
         <f t="shared" si="6"/>
         <v>41579</v>
@@ -10688,7 +10690,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40">
         <f t="shared" si="6"/>
         <v>41609</v>
@@ -10715,7 +10717,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="49" t="s">
         <v>223</v>
       </c>
@@ -10733,7 +10735,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40">
         <f>EDATE(A306,1)</f>
         <v>41640</v>
@@ -10754,7 +10756,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40">
         <f t="shared" si="6"/>
         <v>41671</v>
@@ -10775,7 +10777,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40">
         <f t="shared" si="6"/>
         <v>41699</v>
@@ -10796,7 +10798,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40">
         <f t="shared" si="6"/>
         <v>41730</v>
@@ -10817,7 +10819,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40">
         <f t="shared" si="6"/>
         <v>41760</v>
@@ -10838,7 +10840,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40">
         <f t="shared" si="6"/>
         <v>41791</v>
@@ -10859,7 +10861,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40">
         <f t="shared" ref="A314:A389" si="7">EDATE(A313,1)</f>
         <v>41821</v>
@@ -10884,7 +10886,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="39"/>
       <c r="B315" s="20" t="s">
         <v>201</v>
@@ -10904,7 +10906,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="39"/>
       <c r="B316" s="20" t="s">
         <v>70</v>
@@ -10926,7 +10928,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40">
         <f>EDATE(A314,1)</f>
         <v>41852</v>
@@ -10947,7 +10949,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
         <f t="shared" si="7"/>
         <v>41883</v>
@@ -10974,7 +10976,7 @@
         <v>41906</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40">
         <f t="shared" si="7"/>
         <v>41913</v>
@@ -11001,7 +11003,7 @@
         <v>41929</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="39"/>
       <c r="B320" s="20" t="s">
         <v>78</v>
@@ -11021,7 +11023,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40">
         <f>EDATE(A319,1)</f>
         <v>41944</v>
@@ -11048,7 +11050,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
         <f t="shared" si="7"/>
         <v>41974</v>
@@ -11069,7 +11071,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="49" t="s">
         <v>224</v>
       </c>
@@ -11087,7 +11089,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40">
         <f>EDATE(A322,1)</f>
         <v>42005</v>
@@ -11108,7 +11110,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40">
         <f t="shared" si="7"/>
         <v>42036</v>
@@ -11129,7 +11131,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40">
         <f t="shared" si="7"/>
         <v>42064</v>
@@ -11154,7 +11156,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40">
         <f t="shared" si="7"/>
         <v>42095</v>
@@ -11175,7 +11177,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40">
         <f t="shared" si="7"/>
         <v>42125</v>
@@ -11196,7 +11198,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40">
         <f t="shared" si="7"/>
         <v>42156</v>
@@ -11217,7 +11219,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40">
         <f t="shared" si="7"/>
         <v>42186</v>
@@ -11238,7 +11240,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40">
         <f t="shared" si="7"/>
         <v>42217</v>
@@ -11259,7 +11261,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40">
         <f t="shared" si="7"/>
         <v>42248</v>
@@ -11280,7 +11282,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40">
         <f t="shared" si="7"/>
         <v>42278</v>
@@ -11307,7 +11309,7 @@
         <v>42304</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40">
         <f t="shared" si="7"/>
         <v>42309</v>
@@ -11328,7 +11330,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40">
         <f t="shared" si="7"/>
         <v>42339</v>
@@ -11355,7 +11357,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="49" t="s">
         <v>225</v>
       </c>
@@ -11373,7 +11375,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40">
         <f>EDATE(A335,1)</f>
         <v>42370</v>
@@ -11394,7 +11396,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40">
         <f t="shared" si="7"/>
         <v>42401</v>
@@ -11415,7 +11417,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40">
         <f t="shared" si="7"/>
         <v>42430</v>
@@ -11442,7 +11444,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40">
         <f t="shared" si="7"/>
         <v>42461</v>
@@ -11463,7 +11465,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40">
         <f t="shared" si="7"/>
         <v>42491</v>
@@ -11484,7 +11486,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40">
         <f t="shared" si="7"/>
         <v>42522</v>
@@ -11505,7 +11507,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40">
         <f t="shared" si="7"/>
         <v>42552</v>
@@ -11526,7 +11528,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40">
         <f t="shared" si="7"/>
         <v>42583</v>
@@ -11547,7 +11549,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40">
         <f t="shared" si="7"/>
         <v>42614</v>
@@ -11568,7 +11570,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40">
         <f t="shared" si="7"/>
         <v>42644</v>
@@ -11593,7 +11595,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40">
         <f t="shared" si="7"/>
         <v>42675</v>
@@ -11614,7 +11616,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40">
         <f t="shared" si="7"/>
         <v>42705</v>
@@ -11641,7 +11643,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="39"/>
       <c r="B349" s="20" t="s">
         <v>256</v>
@@ -11663,7 +11665,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="49" t="s">
         <v>226</v>
       </c>
@@ -11681,7 +11683,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40">
         <f>EDATE(A348,1)</f>
         <v>42736</v>
@@ -11702,7 +11704,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40">
         <f t="shared" si="7"/>
         <v>42767</v>
@@ -11723,7 +11725,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40">
         <f t="shared" si="7"/>
         <v>42795</v>
@@ -11744,7 +11746,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40">
         <f t="shared" si="7"/>
         <v>42826</v>
@@ -11765,7 +11767,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40">
         <f t="shared" si="7"/>
         <v>42856</v>
@@ -11786,7 +11788,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40">
         <f t="shared" si="7"/>
         <v>42887</v>
@@ -11807,7 +11809,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40">
         <f t="shared" si="7"/>
         <v>42917</v>
@@ -11828,7 +11830,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40">
         <f t="shared" si="7"/>
         <v>42948</v>
@@ -11849,7 +11851,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40">
         <f t="shared" si="7"/>
         <v>42979</v>
@@ -11870,7 +11872,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40">
         <f t="shared" si="7"/>
         <v>43009</v>
@@ -11897,7 +11899,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="39"/>
       <c r="B361" s="20" t="s">
         <v>257</v>
@@ -11917,7 +11919,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="39"/>
       <c r="B362" s="20" t="s">
         <v>156</v>
@@ -11937,7 +11939,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40">
         <f>EDATE(A360,1)</f>
         <v>43040</v>
@@ -11958,7 +11960,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40">
         <f t="shared" si="7"/>
         <v>43070</v>
@@ -11979,7 +11981,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="49" t="s">
         <v>227</v>
       </c>
@@ -11997,7 +11999,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40">
         <f>EDATE(A364,1)</f>
         <v>43101</v>
@@ -12018,7 +12020,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40">
         <f t="shared" si="7"/>
         <v>43132</v>
@@ -12039,7 +12041,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40">
         <f t="shared" si="7"/>
         <v>43160</v>
@@ -12060,7 +12062,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40">
         <f t="shared" si="7"/>
         <v>43191</v>
@@ -12081,7 +12083,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40">
         <f t="shared" si="7"/>
         <v>43221</v>
@@ -12102,7 +12104,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40">
         <f t="shared" si="7"/>
         <v>43252</v>
@@ -12123,7 +12125,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40">
         <f t="shared" si="7"/>
         <v>43282</v>
@@ -12144,7 +12146,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40">
         <f t="shared" si="7"/>
         <v>43313</v>
@@ -12165,7 +12167,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40">
         <f t="shared" si="7"/>
         <v>43344</v>
@@ -12186,7 +12188,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40">
         <f t="shared" si="7"/>
         <v>43374</v>
@@ -12213,7 +12215,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40">
         <f t="shared" si="7"/>
         <v>43405</v>
@@ -12234,7 +12236,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40">
         <f t="shared" si="7"/>
         <v>43435</v>
@@ -12259,7 +12261,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="49" t="s">
         <v>228</v>
       </c>
@@ -12277,7 +12279,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40">
         <f>EDATE(A377,1)</f>
         <v>43466</v>
@@ -12304,7 +12306,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40">
         <f t="shared" si="7"/>
         <v>43497</v>
@@ -12325,7 +12327,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40">
         <f t="shared" si="7"/>
         <v>43525</v>
@@ -12346,7 +12348,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40">
         <f t="shared" si="7"/>
         <v>43556</v>
@@ -12367,7 +12369,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40">
         <f t="shared" si="7"/>
         <v>43586</v>
@@ -12388,7 +12390,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40">
         <f t="shared" si="7"/>
         <v>43617</v>
@@ -12413,7 +12415,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="39"/>
       <c r="B385" s="20" t="s">
         <v>86</v>
@@ -12433,7 +12435,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40">
         <f>EDATE(A384,1)</f>
         <v>43647</v>
@@ -12454,7 +12456,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40">
         <f t="shared" si="7"/>
         <v>43678</v>
@@ -12475,7 +12477,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40">
         <f t="shared" si="7"/>
         <v>43709</v>
@@ -12500,7 +12502,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40">
         <f t="shared" si="7"/>
         <v>43739</v>
@@ -12523,7 +12525,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="39"/>
       <c r="B390" s="20" t="s">
         <v>127</v>
@@ -12543,7 +12545,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40">
         <f>EDATE(A389,1)</f>
         <v>43770</v>
@@ -12564,7 +12566,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40">
         <f t="shared" ref="A392:A433" si="8">EDATE(A391,1)</f>
         <v>43800</v>
@@ -12589,7 +12591,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="49" t="s">
         <v>229</v>
       </c>
@@ -12607,7 +12609,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40">
         <f>EDATE(A392,1)</f>
         <v>43831</v>
@@ -12628,7 +12630,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40">
         <f t="shared" si="8"/>
         <v>43862</v>
@@ -12653,7 +12655,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40">
         <f>EDATE(A395,1)</f>
         <v>43891</v>
@@ -12674,7 +12676,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40">
         <f t="shared" si="8"/>
         <v>43922</v>
@@ -12695,7 +12697,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40">
         <f t="shared" si="8"/>
         <v>43952</v>
@@ -12716,7 +12718,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40">
         <f t="shared" si="8"/>
         <v>43983</v>
@@ -12737,7 +12739,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40">
         <f t="shared" si="8"/>
         <v>44013</v>
@@ -12758,7 +12760,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40">
         <f t="shared" si="8"/>
         <v>44044</v>
@@ -12779,7 +12781,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40">
         <f t="shared" si="8"/>
         <v>44075</v>
@@ -12800,7 +12802,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40">
         <f t="shared" si="8"/>
         <v>44105</v>
@@ -12821,7 +12823,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40">
         <f t="shared" si="8"/>
         <v>44136</v>
@@ -12848,7 +12850,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40">
         <f t="shared" si="8"/>
         <v>44166</v>
@@ -12869,7 +12871,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="49" t="s">
         <v>230</v>
       </c>
@@ -12887,7 +12889,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40">
         <f>EDATE(A405,1)</f>
         <v>44197</v>
@@ -12912,7 +12914,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40">
         <f t="shared" si="8"/>
         <v>44228</v>
@@ -12933,7 +12935,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40">
         <f t="shared" si="8"/>
         <v>44256</v>
@@ -12954,7 +12956,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40">
         <f t="shared" si="8"/>
         <v>44287</v>
@@ -12975,7 +12977,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40">
         <f t="shared" si="8"/>
         <v>44317</v>
@@ -12996,7 +12998,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40">
         <f t="shared" si="8"/>
         <v>44348</v>
@@ -13017,7 +13019,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40">
         <f t="shared" si="8"/>
         <v>44378</v>
@@ -13038,7 +13040,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40">
         <f t="shared" si="8"/>
         <v>44409</v>
@@ -13059,7 +13061,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40">
         <f t="shared" si="8"/>
         <v>44440</v>
@@ -13080,7 +13082,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40">
         <f t="shared" si="8"/>
         <v>44470</v>
@@ -13101,7 +13103,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40">
         <f t="shared" si="8"/>
         <v>44501</v>
@@ -13122,7 +13124,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40">
         <f t="shared" si="8"/>
         <v>44531</v>
@@ -13147,7 +13149,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="49" t="s">
         <v>231</v>
       </c>
@@ -13165,7 +13167,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40">
         <f>EDATE(A418,1)</f>
         <v>44562</v>
@@ -13186,7 +13188,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40">
         <f t="shared" si="8"/>
         <v>44593</v>
@@ -13207,7 +13209,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40">
         <f t="shared" si="8"/>
         <v>44621</v>
@@ -13234,7 +13236,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="39"/>
       <c r="B423" s="20" t="s">
         <v>127</v>
@@ -13256,7 +13258,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="39"/>
       <c r="B424" s="20" t="s">
         <v>53</v>
@@ -13278,7 +13280,7 @@
         <v>44659</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40">
         <f>EDATE(A422,1)</f>
         <v>44652</v>
@@ -13299,7 +13301,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40">
         <f t="shared" si="8"/>
         <v>44682</v>
@@ -13320,7 +13322,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40">
         <f t="shared" si="8"/>
         <v>44713</v>
@@ -13341,7 +13343,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40">
         <f t="shared" si="8"/>
         <v>44743</v>
@@ -13362,7 +13364,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40">
         <f t="shared" si="8"/>
         <v>44774</v>
@@ -13383,7 +13385,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40">
         <f t="shared" si="8"/>
         <v>44805</v>
@@ -13404,7 +13406,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40">
         <f t="shared" si="8"/>
         <v>44835</v>
@@ -13425,7 +13427,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40">
         <f t="shared" si="8"/>
         <v>44866</v>
@@ -13446,7 +13448,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40">
         <f t="shared" si="8"/>
         <v>44896</v>
@@ -13473,7 +13475,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40"/>
       <c r="B434" s="20" t="s">
         <v>134</v>
@@ -13493,7 +13495,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="56" t="s">
         <v>276</v>
       </c>
@@ -13511,7 +13513,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40">
         <v>44927</v>
       </c>
@@ -13531,7 +13533,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40">
         <v>44958</v>
       </c>
@@ -13555,7 +13557,7 @@
         <v>44984</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40">
         <v>44986</v>
       </c>
@@ -13575,7 +13577,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40">
         <v>45017</v>
       </c>
@@ -13595,7 +13597,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40">
         <v>45047</v>
       </c>
@@ -13619,7 +13621,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40"/>
       <c r="B441" s="20" t="s">
         <v>86</v>
@@ -13641,7 +13643,7 @@
         <v>45058</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40">
         <v>45078</v>
       </c>
@@ -13667,49 +13669,57 @@
         <v>280</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40">
         <v>45108</v>
       </c>
       <c r="B443" s="20"/>
-      <c r="C443" s="13"/>
+      <c r="C443" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D443" s="38"/>
       <c r="E443" s="9"/>
       <c r="F443" s="20"/>
-      <c r="G443" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G443" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H443" s="38"/>
       <c r="I443" s="9"/>
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40">
         <v>45139</v>
       </c>
       <c r="B444" s="20"/>
-      <c r="C444" s="13"/>
+      <c r="C444" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D444" s="38"/>
       <c r="E444" s="9"/>
       <c r="F444" s="20"/>
-      <c r="G444" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G444" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H444" s="38"/>
       <c r="I444" s="9"/>
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40">
         <v>45170</v>
       </c>
-      <c r="B445" s="20"/>
+      <c r="B445" s="20" t="s">
+        <v>63</v>
+      </c>
       <c r="C445" s="13"/>
-      <c r="D445" s="38"/>
+      <c r="D445" s="38">
+        <v>2</v>
+      </c>
       <c r="E445" s="9"/>
       <c r="F445" s="20"/>
       <c r="G445" s="13" t="str">
@@ -13719,9 +13729,11 @@
       <c r="H445" s="38"/>
       <c r="I445" s="9"/>
       <c r="J445" s="11"/>
-      <c r="K445" s="20"/>
-    </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K445" s="20" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40">
         <v>45200</v>
       </c>
@@ -13739,7 +13751,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40">
         <v>45231</v>
       </c>
@@ -13757,7 +13769,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40">
         <v>45261</v>
       </c>
@@ -13775,7 +13787,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40">
         <v>45292</v>
       </c>
@@ -13793,7 +13805,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40">
         <v>45323</v>
       </c>
@@ -13811,7 +13823,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40">
         <v>45352</v>
       </c>
@@ -13829,7 +13841,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40">
         <v>45383</v>
       </c>
@@ -13847,7 +13859,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40">
         <v>45413</v>
       </c>
@@ -13865,7 +13877,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40">
         <v>45444</v>
       </c>
@@ -13883,7 +13895,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40">
         <v>45474</v>
       </c>
@@ -13901,7 +13913,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40">
         <v>45505</v>
       </c>
@@ -13919,7 +13931,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40">
         <v>45536</v>
       </c>
@@ -13937,7 +13949,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40">
         <v>45566</v>
       </c>
@@ -13955,7 +13967,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40">
         <v>45597</v>
       </c>
@@ -13973,7 +13985,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40">
         <v>45627</v>
       </c>
@@ -13991,7 +14003,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40">
         <v>45658</v>
       </c>
@@ -14009,7 +14021,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40">
         <v>45689</v>
       </c>
@@ -14027,7 +14039,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40">
         <v>45717</v>
       </c>
@@ -14045,7 +14057,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40">
         <v>45748</v>
       </c>
@@ -14063,7 +14075,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40">
         <v>45778</v>
       </c>
@@ -14081,7 +14093,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40">
         <v>45809</v>
       </c>
@@ -14099,7 +14111,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40">
         <v>45839</v>
       </c>
@@ -14117,7 +14129,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40">
         <v>45870</v>
       </c>
@@ -14135,7 +14147,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40">
         <v>45901</v>
       </c>
@@ -14153,7 +14165,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40">
         <v>45931</v>
       </c>
@@ -14171,7 +14183,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40">
         <v>45962</v>
       </c>
@@ -14189,7 +14201,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40">
         <v>45992</v>
       </c>
@@ -14207,7 +14219,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40">
         <v>46023</v>
       </c>
@@ -14225,7 +14237,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40">
         <v>46054</v>
       </c>
@@ -14243,7 +14255,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40">
         <v>46082</v>
       </c>
@@ -14277,10 +14289,10 @@
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -14303,7 +14315,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -14311,21 +14323,21 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="36" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="36" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="67" t="s">
         <v>33</v>
       </c>
@@ -14338,7 +14350,7 @@
       <c r="K1" s="68"/>
       <c r="L1" s="68"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>24</v>
       </c>
@@ -14367,7 +14379,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3">
@@ -14393,17 +14405,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="32"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>278</v>
       </c>
@@ -14427,10 +14439,10 @@
       <c r="K6" s="68"/>
       <c r="L6" s="68"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>452.45799999999997</v>
+        <v>455.45799999999997</v>
       </c>
       <c r="C7" s="36">
         <v>1</v>
@@ -14458,7 +14470,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="36">
         <v>2</v>
       </c>
@@ -14484,7 +14496,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="36">
         <v>3</v>
       </c>
@@ -14510,7 +14522,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="36">
         <v>4</v>
       </c>
@@ -14536,7 +14548,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="36">
         <v>5</v>
       </c>
@@ -14562,7 +14574,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="36">
         <v>6</v>
       </c>
@@ -14588,7 +14600,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="36">
         <v>7</v>
       </c>
@@ -14614,7 +14626,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="36">
         <v>8</v>
       </c>
@@ -14640,7 +14652,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="36">
         <v>9</v>
       </c>
@@ -14660,7 +14672,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="36">
         <v>10</v>
       </c>
@@ -14680,7 +14692,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="36">
         <v>11</v>
       </c>
@@ -14700,7 +14712,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="36">
         <v>12</v>
       </c>
@@ -14721,7 +14733,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="36">
         <v>13</v>
       </c>
@@ -14742,7 +14754,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="36">
         <v>14</v>
       </c>
@@ -14763,7 +14775,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="36">
         <v>15</v>
       </c>
@@ -14784,7 +14796,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="36">
         <v>16</v>
       </c>
@@ -14805,7 +14817,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="36">
         <v>17</v>
       </c>
@@ -14826,7 +14838,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="36">
         <v>18</v>
       </c>
@@ -14847,7 +14859,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="36">
         <v>19</v>
       </c>
@@ -14868,7 +14880,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="36">
         <v>20</v>
       </c>
@@ -14889,7 +14901,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="36">
         <v>21</v>
       </c>
@@ -14910,7 +14922,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="36">
         <v>22</v>
       </c>
@@ -14931,7 +14943,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="36">
         <v>23</v>
       </c>
@@ -14952,7 +14964,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="36">
         <v>24</v>
       </c>
@@ -14973,7 +14985,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="36">
         <v>25</v>
       </c>
@@ -14994,7 +15006,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="36">
         <v>26</v>
       </c>
@@ -15015,7 +15027,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="36">
         <v>27</v>
       </c>
@@ -15036,7 +15048,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="36">
         <v>28</v>
       </c>
@@ -15057,7 +15069,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="36">
         <v>29</v>
       </c>
@@ -15078,7 +15090,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="36">
         <v>30</v>
       </c>
@@ -15099,7 +15111,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="36">
         <v>31</v>
       </c>
@@ -15120,7 +15132,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="36">
         <v>32</v>
       </c>
@@ -15129,7 +15141,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="36">
         <v>33</v>
       </c>
@@ -15138,7 +15150,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="36">
         <v>34</v>
       </c>
@@ -15147,7 +15159,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="36">
         <v>35</v>
       </c>
@@ -15156,7 +15168,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="36">
         <v>36</v>
       </c>
@@ -15165,7 +15177,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="36">
         <v>37</v>
       </c>
@@ -15174,7 +15186,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="36">
         <v>38</v>
       </c>
@@ -15183,7 +15195,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="36">
         <v>39</v>
       </c>
@@ -15192,7 +15204,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="36">
         <v>40</v>
       </c>
@@ -15201,7 +15213,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="36">
         <v>41</v>
       </c>
@@ -15210,7 +15222,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="36">
         <v>42</v>
       </c>
@@ -15219,7 +15231,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="36">
         <v>43</v>
       </c>
@@ -15228,7 +15240,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="36">
         <v>44</v>
       </c>
@@ -15237,7 +15249,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="36">
         <v>45</v>
       </c>
@@ -15246,7 +15258,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="36">
         <v>46</v>
       </c>
@@ -15255,7 +15267,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="36">
         <v>47</v>
       </c>
@@ -15264,7 +15276,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="36">
         <v>48</v>
       </c>
@@ -15273,7 +15285,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="36">
         <v>49</v>
       </c>
@@ -15282,7 +15294,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="36">
         <v>50</v>
       </c>
@@ -15291,7 +15303,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="36">
         <v>51</v>
       </c>
@@ -15300,7 +15312,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="36">
         <v>52</v>
       </c>
@@ -15309,7 +15321,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="36">
         <v>53</v>
       </c>
@@ -15318,7 +15330,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="36">
         <v>54</v>
       </c>
@@ -15327,7 +15339,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="36">
         <v>55</v>
       </c>
@@ -15336,7 +15348,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="36">
         <v>56</v>
       </c>
@@ -15345,7 +15357,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="36">
         <v>57</v>
       </c>
@@ -15354,7 +15366,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="36">
         <v>58</v>
       </c>
@@ -15363,7 +15375,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="36">
         <v>59</v>
       </c>
@@ -15372,7 +15384,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="36">
         <v>60</v>
       </c>
@@ -15381,7 +15393,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/OJT/PANGANIBAN CRISTETA.xlsx
+++ b/REGULAR/OJT/PANGANIBAN CRISTETA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565B65B0-773B-4C05-9F6F-42F06DCCCF60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30246D56-489A-4D31-B2DA-1975129F0AF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="287">
   <si>
     <t>PERIOD</t>
   </si>
@@ -893,6 +893,9 @@
   </si>
   <si>
     <t>12/21,22,27-29/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
   </si>
 </sst>
 </file>
@@ -3338,7 +3341,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K477" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K478" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
@@ -3716,12 +3719,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K477"/>
+  <dimension ref="A2:K478"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <pane ySplit="3900" topLeftCell="A445" activePane="bottomLeft"/>
+      <pane ySplit="3900" topLeftCell="A451" activePane="bottomLeft"/>
       <selection activeCell="B3" sqref="B3:C3"/>
-      <selection pane="bottomLeft" activeCell="C446" sqref="C446"/>
+      <selection pane="bottomLeft" activeCell="B454" sqref="B454"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3886,7 +3889,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>196.208</v>
+        <v>198.708</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3896,7 +3899,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>256.75</v>
+        <v>259.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -13843,15 +13846,17 @@
       <c r="B450" s="20" t="s">
         <v>256</v>
       </c>
-      <c r="C450" s="13"/>
+      <c r="C450" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D450" s="38">
         <v>5</v>
       </c>
       <c r="E450" s="9"/>
       <c r="F450" s="20"/>
-      <c r="G450" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G450" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H450" s="38"/>
       <c r="I450" s="9"/>
@@ -13861,8 +13866,8 @@
       </c>
     </row>
     <row r="451" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A451" s="40">
-        <v>45292</v>
+      <c r="A451" s="56" t="s">
+        <v>286</v>
       </c>
       <c r="B451" s="20"/>
       <c r="C451" s="13"/>
@@ -13880,16 +13885,18 @@
     </row>
     <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B452" s="20"/>
-      <c r="C452" s="13"/>
+      <c r="C452" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D452" s="38"/>
       <c r="E452" s="9"/>
       <c r="F452" s="20"/>
-      <c r="G452" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G452" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H452" s="38"/>
       <c r="I452" s="9"/>
@@ -13898,7 +13905,7 @@
     </row>
     <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B453" s="20"/>
       <c r="C453" s="13"/>
@@ -13916,7 +13923,7 @@
     </row>
     <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B454" s="20"/>
       <c r="C454" s="13"/>
@@ -13934,7 +13941,7 @@
     </row>
     <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B455" s="20"/>
       <c r="C455" s="13"/>
@@ -13952,7 +13959,7 @@
     </row>
     <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B456" s="20"/>
       <c r="C456" s="13"/>
@@ -13970,7 +13977,7 @@
     </row>
     <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B457" s="20"/>
       <c r="C457" s="13"/>
@@ -13988,7 +13995,7 @@
     </row>
     <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B458" s="20"/>
       <c r="C458" s="13"/>
@@ -14006,7 +14013,7 @@
     </row>
     <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B459" s="20"/>
       <c r="C459" s="13"/>
@@ -14024,7 +14031,7 @@
     </row>
     <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B460" s="20"/>
       <c r="C460" s="13"/>
@@ -14042,7 +14049,7 @@
     </row>
     <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B461" s="20"/>
       <c r="C461" s="13"/>
@@ -14060,7 +14067,7 @@
     </row>
     <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B462" s="20"/>
       <c r="C462" s="13"/>
@@ -14078,7 +14085,7 @@
     </row>
     <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B463" s="20"/>
       <c r="C463" s="13"/>
@@ -14096,7 +14103,7 @@
     </row>
     <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B464" s="20"/>
       <c r="C464" s="13"/>
@@ -14114,7 +14121,7 @@
     </row>
     <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B465" s="20"/>
       <c r="C465" s="13"/>
@@ -14132,7 +14139,7 @@
     </row>
     <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B466" s="20"/>
       <c r="C466" s="13"/>
@@ -14150,7 +14157,7 @@
     </row>
     <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B467" s="20"/>
       <c r="C467" s="13"/>
@@ -14168,7 +14175,7 @@
     </row>
     <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B468" s="20"/>
       <c r="C468" s="13"/>
@@ -14186,7 +14193,7 @@
     </row>
     <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B469" s="20"/>
       <c r="C469" s="13"/>
@@ -14204,7 +14211,7 @@
     </row>
     <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B470" s="20"/>
       <c r="C470" s="13"/>
@@ -14222,7 +14229,7 @@
     </row>
     <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B471" s="20"/>
       <c r="C471" s="13"/>
@@ -14240,7 +14247,7 @@
     </row>
     <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B472" s="20"/>
       <c r="C472" s="13"/>
@@ -14258,7 +14265,7 @@
     </row>
     <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B473" s="20"/>
       <c r="C473" s="13"/>
@@ -14276,7 +14283,7 @@
     </row>
     <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B474" s="20"/>
       <c r="C474" s="13"/>
@@ -14294,7 +14301,7 @@
     </row>
     <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B475" s="20"/>
       <c r="C475" s="13"/>
@@ -14312,7 +14319,7 @@
     </row>
     <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B476" s="20"/>
       <c r="C476" s="13"/>
@@ -14330,7 +14337,7 @@
     </row>
     <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B477" s="20"/>
       <c r="C477" s="13"/>
@@ -14345,6 +14352,24 @@
       <c r="I477" s="9"/>
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
+    </row>
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A478" s="40">
+        <v>46082</v>
+      </c>
+      <c r="B478" s="20"/>
+      <c r="C478" s="13"/>
+      <c r="D478" s="38"/>
+      <c r="E478" s="9"/>
+      <c r="F478" s="20"/>
+      <c r="G478" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H478" s="38"/>
+      <c r="I478" s="9"/>
+      <c r="J478" s="11"/>
+      <c r="K478" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -14515,7 +14540,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>452.95799999999997</v>
+        <v>457.95799999999997</v>
       </c>
       <c r="C7" s="36">
         <v>1</v>
